--- a/biology/Botanique/Jardin_Jungle_Karlostachys/Jardin_Jungle_Karlostachys.xlsx
+++ b/biology/Botanique/Jardin_Jungle_Karlostachys/Jardin_Jungle_Karlostachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Jardin Jungle se situe en France dans la localité d'Eu, dans le département de la Seine-Maritime et la région Normandie. Ce jardin privé de 15 hectares ouvert au public depuis 2012 regroupe les collections botaniques de Charles Boulanger[1]. Celles-ci sont intégrées dans un environnement forestier très sauvage où la faune et la flore locales sont préservées.
+Le Jardin Jungle se situe en France dans la localité d'Eu, dans le département de la Seine-Maritime et la région Normandie. Ce jardin privé de 15 hectares ouvert au public depuis 2012 regroupe les collections botaniques de Charles Boulanger. Celles-ci sont intégrées dans un environnement forestier très sauvage où la faune et la flore locales sont préservées.
 Le jardin jungle est divisé en trois parties : l'arboretum qui regroupe les collections de ligneux rares (Bretschneidera, Cathaya, Sequoia ou Fitzroya) et une bambouseraie, un jardin clos qui conserve les collections (Hydrangea, Rhododendron, lianes et les introductions) et une lande à Eucalyptus (écotypes sélectionnés pour leur résistance au froid). 
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin jungle Karlostachys se situe à Eu, à trois kilomètres du centre, dans la forêt d'Eu, entre la ferme de Beaumont et Briga, le site archéologique gallo-romain du Bois l'Abbé.
 </t>
@@ -544,9 +558,11 @@
           <t>Espèces végétales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin jungle regroupe des milliers d’espèces végétales différentes sur un domaine de quinze hectares[2]. On y recense des collections de séquoias, de nombreux hybrides de Passiflora[3] et d'Hedychium[4] créés dans les serres, une bambouseraie où plus de 300 espèces et cultivars de bambous cohabitent : des géants de plus de 13 mètres de haut, des grimpants, des rouges, des bleus, des noirs, des rayés, des carrés, des tachetés, des sages poussant en touffe (cespiteux) et beaucoup de variétés rares : Yushania pauciramificans, Acidosasa gigantea, Oligostachyum sulcatum, Fargesia 'KR 6791' (un bambou cespiteux poussant jusqu'à 13 mètres de haut)...
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin jungle regroupe des milliers d’espèces végétales différentes sur un domaine de quinze hectares. On y recense des collections de séquoias, de nombreux hybrides de Passiflora et d'Hedychium créés dans les serres, une bambouseraie où plus de 300 espèces et cultivars de bambous cohabitent : des géants de plus de 13 mètres de haut, des grimpants, des rouges, des bleus, des noirs, des rayés, des carrés, des tachetés, des sages poussant en touffe (cespiteux) et beaucoup de variétés rares : Yushania pauciramificans, Acidosasa gigantea, Oligostachyum sulcatum, Fargesia 'KR 6791' (un bambou cespiteux poussant jusqu'à 13 mètres de haut)...
 Plus de 7 000 taxons ont été recensés dans le parc. Au printemps, ce sont les cyclamens, les jacinthes des bois, les hellébores, les épimediums, les rhododendrons et autres qui fleurissent. En été, c'est le tour des hydrangeas et la sortie des bambous géants qui atteignent plus de 10 mètres en deux semaines (principalement Phyllostachys vivax et Phyllostachys edulis). Viennent ensuite les couleurs d'automne avec le vert foncé des bambous, le jaune des liriodendrons et kalopanax, l'orange des hêtres et le bleu des eucalyptus.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin jungle Karlostachys conserve volontairement de nombreux espaces naturels comme les ronciers (pour préserver des habitants tels que le muscardin muscardinus avellanarius ), les vieux arbres dépérissants, les populations de lierres, orties, liserons ou clématites sauvages. Ce jardin se défend d'utiliser produit phytosanitaire, fertilisant, insecticide ou fongicide. Une gestion restauratoire est appliquée au jardin. La biodiversité locale mais aussi celle des plantes cultivées est une priorité.
 </t>
